--- a/res.xlsx
+++ b/res.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -79,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +256,228 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>File Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Keywords</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Policy Questions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>policy.docx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sure, here are 5-7 relevant keywords extracted from the given text:
+    1. Personal Data
+    2. Card Processing
+    3. Agreement
+    4. Payment
+    5. Services
+    6. Customers
+    7. Instructions</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Question 1: What is the purpose of clause 18.4 in the provided policy text?
+Answer: Clause 18.4 sets out the obligations and rights of the parties involved in processing personal data for the provision of services. It outlines the requirements for authorizing GPN to process personal data, including providing instructions, notifying data subjects, and implementing technical and organizational measures to protect against data security incidents.
+Question 2: Who is responsible for complying with the obligations under the Data Protection Laws in relation to the security of processing personal data?Answer: GPN is responsible for complying with the obligations under the Data Protection Laws relating to the security of processing personal data. This includes implementing appropriate technical and organizational measures, notifying data subjects, and conducting privacy impact assessments.
+Question 3: What is the purpose of informing the data subject without undue delay after becoming aware of a data security incident?Answer: The purpose of informing the data subject without undue delay after becoming aware of a data security incident is to comply with the requirements of the Data Protection Laws for exercising data subjects' rights under the laws, including providing information on the security incident and taking appropriate actions to mitigate its impact.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>